--- a/Excel Templates/Receivables_Upload.xlsx
+++ b/Excel Templates/Receivables_Upload.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_17_0k">'[1]T3 Key Figures'!#REF!</definedName>
     <definedName name="_21_0ko">[2]Tabelle1!#REF!</definedName>
     <definedName name="_25_0ko">[2]Tabelle1!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3 Upload BW'!$A$1:$V$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3 Upload BW'!$A$1:$X$56</definedName>
     <definedName name="Anlage">MID(CELL("Dateiname"),FIND(".X",CELL("Dateiname"))-8,8)</definedName>
     <definedName name="AnteilEigenkapital">#REF!</definedName>
     <definedName name="AnteilFremdkapital">#REF!</definedName>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Not due</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Daily (1) / Monthly (12) Upload</t>
   </si>
   <si>
-    <t>Payment Condition</t>
-  </si>
-  <si>
     <t>Sales Organisation</t>
   </si>
   <si>
@@ -188,6 +185,15 @@
   </si>
   <si>
     <t>thereof uninsured CL</t>
+  </si>
+  <si>
+    <t>Payment Conditions</t>
+  </si>
+  <si>
+    <t>Highest reminder stage reached:</t>
+  </si>
+  <si>
+    <t>Latest reminder sent (YYYYMMDD):</t>
   </si>
 </sst>
 </file>
@@ -6163,11 +6169,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6178,29 +6184,29 @@
     <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="1" customWidth="1"/>
-    <col min="9" max="22" width="12.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="10" width="24.42578125" style="1" customWidth="1"/>
+    <col min="11" max="24" width="12.7109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>14</v>
@@ -6209,49 +6215,55 @@
         <v>13</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="7"/>
@@ -6264,8 +6276,8 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -6274,8 +6286,10 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="7"/>
@@ -6288,8 +6302,8 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -6298,8 +6312,10 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="7"/>
@@ -6312,8 +6328,8 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -6322,8 +6338,10 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="7"/>
@@ -6336,8 +6354,8 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -6346,8 +6364,10 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="7"/>
@@ -6360,8 +6380,8 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -6370,8 +6390,10 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="7"/>
@@ -6384,8 +6406,8 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -6394,8 +6416,10 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="7"/>
@@ -6408,8 +6432,8 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -6418,8 +6442,10 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="7"/>
@@ -6432,8 +6458,8 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -6442,8 +6468,10 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="7"/>
@@ -6456,8 +6484,8 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -6466,8 +6494,10 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="7"/>
@@ -6480,8 +6510,8 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -6490,8 +6520,10 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="7"/>
@@ -6504,8 +6536,8 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -6514,8 +6546,10 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="7"/>
@@ -6528,8 +6562,8 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -6538,8 +6572,10 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="7"/>
@@ -6552,8 +6588,8 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -6562,8 +6598,10 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="7"/>
@@ -6576,8 +6614,8 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -6586,8 +6624,10 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="7"/>
@@ -6600,8 +6640,8 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -6610,8 +6650,10 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="7"/>
@@ -6624,8 +6666,8 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -6634,8 +6676,10 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="7"/>
@@ -6648,8 +6692,8 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -6658,8 +6702,10 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="7"/>
@@ -6672,8 +6718,8 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -6682,8 +6728,10 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="7"/>
@@ -6696,8 +6744,8 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -6706,8 +6754,10 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="7"/>
@@ -6720,8 +6770,8 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -6730,8 +6780,10 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="7"/>
@@ -6744,8 +6796,8 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -6754,8 +6806,10 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="7"/>
@@ -6768,8 +6822,8 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -6778,8 +6832,10 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="7"/>
@@ -6792,8 +6848,8 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -6802,8 +6858,10 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="7"/>
@@ -6816,8 +6874,8 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -6826,8 +6884,10 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="7"/>
@@ -6840,8 +6900,8 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -6850,8 +6910,10 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="7"/>
@@ -6864,8 +6926,8 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -6874,8 +6936,10 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="7"/>
@@ -6888,8 +6952,8 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -6898,8 +6962,10 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="7"/>
@@ -6912,8 +6978,8 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -6922,8 +6988,10 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="7"/>
@@ -6936,8 +7004,8 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -6946,8 +7014,10 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="7"/>
@@ -6960,8 +7030,8 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -6970,8 +7040,10 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="7"/>
@@ -6984,8 +7056,8 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -6994,8 +7066,10 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="7"/>
@@ -7008,8 +7082,8 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -7018,8 +7092,10 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="7"/>
@@ -7032,8 +7108,8 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -7042,8 +7118,10 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="7"/>
@@ -7056,8 +7134,8 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -7066,8 +7144,10 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="7"/>
@@ -7080,8 +7160,8 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -7090,8 +7170,10 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="7"/>
@@ -7104,8 +7186,8 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -7114,8 +7196,10 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="7"/>
@@ -7128,8 +7212,8 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -7138,8 +7222,10 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="7"/>
@@ -7152,8 +7238,8 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -7162,8 +7248,10 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="7"/>
@@ -7176,8 +7264,8 @@
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -7186,8 +7274,10 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="7"/>
@@ -7200,8 +7290,8 @@
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -7210,8 +7300,10 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="7"/>
@@ -7224,8 +7316,8 @@
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -7234,8 +7326,10 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="7"/>
@@ -7248,8 +7342,8 @@
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -7258,8 +7352,10 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="7"/>
@@ -7272,8 +7368,8 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -7282,8 +7378,10 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="7"/>
@@ -7296,8 +7394,8 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -7306,8 +7404,10 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="7"/>
@@ -7320,8 +7420,8 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -7330,8 +7430,10 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="7"/>
@@ -7344,8 +7446,8 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -7354,8 +7456,10 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="7"/>
@@ -7368,8 +7472,8 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -7378,8 +7482,10 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="7"/>
@@ -7392,8 +7498,8 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -7402,8 +7508,10 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="7"/>
@@ -7416,8 +7524,8 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -7426,8 +7534,10 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="7"/>
@@ -7440,8 +7550,8 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -7450,8 +7560,10 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="7"/>
@@ -7464,8 +7576,8 @@
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -7474,8 +7586,10 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="7"/>
@@ -7488,8 +7602,8 @@
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -7498,8 +7612,10 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="7"/>
@@ -7512,8 +7628,8 @@
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -7522,8 +7638,10 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="7"/>
@@ -7536,8 +7654,8 @@
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -7546,8 +7664,10 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="7"/>
@@ -7560,8 +7680,8 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -7570,9 +7690,11 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V56"/>
+  <autoFilter ref="A1:X56"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
